--- a/03_excel_start/Кейс №3 "Помоги бабушке-бухгалтеру".xlsx
+++ b/03_excel_start/Кейс №3 "Помоги бабушке-бухгалтеру".xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pyshkovni/РАНХиГС.Диск/Материал/economic-informatics/03_excel_start/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B7411C-4B14-7B4A-B3B0-49ABA0FF826F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77E3B74-52D7-F544-8AD3-2B43236237D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1040" windowWidth="27840" windowHeight="16340" xr2:uid="{8102696D-405D-E342-B207-5311608B1291}"/>
   </bookViews>
@@ -1353,7 +1353,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1420,13 +1420,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2131,6 +2124,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2192,19 +2198,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2335,6 +2328,279 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>324255</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>81064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>776862</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155372</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B51821-0C0E-7AC8-FBE9-9698D304CF7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1290266" y="689043"/>
+          <a:ext cx="3749202" cy="3722180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0. Выберите выпавшую вам проблему и скройте остальные листы</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. Создайте новый лист с названием «Табель» или переименуйте текущий.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. Воспроизведите при помощи </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MS Excel </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>таблицу, изображенную на рисунке 1.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.  Распределите фамилии, имена, отчества, а также даты по соответствующим столбцам в таблице, используя инструменты </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MS Excel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Отсортируйте список по фамилиям в алфавитном порядке. Отредактируйте даты в соответствии с образцом заполнения. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2418,8 +2684,8 @@
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2171701" cy="264560"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2496,7 +2762,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2575,8 +2841,8 @@
       <xdr:rowOff>120651</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9210675" cy="429926"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2721,7 +2987,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2871,8 +3137,8 @@
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4410076" cy="429926"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -2972,7 +3238,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -3169,19 +3435,812 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>668865</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>194732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>135466</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7FDD39-D0F8-603E-EC5C-2255EE14C34E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7484532" y="3242732"/>
+          <a:ext cx="3615267" cy="4656667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Перед вами 1-ая форма бухгалтерского баланса. В ней перечислены все статьи, показывающие, куда вложены средства и откуда они приходят в определенном году. ЖЕЛТЫЕ ячейки необходимо заполнить!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0. Выберите выпавшую вам проблему и скройте остальные листы</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>﻿﻿1. Посчитайте итоги по разделам, просуммировав значения расходов!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>﻿﻿﻿2. Посчитайте долю каждого расхода от итогов</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>﻿﻿﻿</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. С помощью функции ВПР заполните таблицу «Поиск по коду строки»</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. Посчитайте коэффициенты по формулам. Смотри пример на картинке. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Значение Кодов брать из таблицы «Поиск по коду строки» колонка «тыс.руб.»</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>677333</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18245DE7-BFF5-5F6E-798B-A70BD881572B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10439400" y="770467"/>
+          <a:ext cx="5376333" cy="6866466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0. Выберите выпавшую вам проблему и скройте остальные листы</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. Перекрасьте шапку таблицы в зеленый цвет.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. Отредактируйте все ФИО, приведя их к общему стилю написания (первые буквы - заглавные; остальные - строчные).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. Разделите по столбцам ФИО с помощью соответствующего инструмента</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. Отредактируйте таблицу "Домашний адрес", соединив строки в одну ячейку при помощи функции СЦЕПИТЬ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. Измените формат ячеек в столбцах "Дата получения карты" и "Дата окончания срока действия"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6. Отсортировать таблицу по фамилиям</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7. Создать фильтр по виду клубной карты</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8. Закрепить шапку таблицы</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9. Скрыть столбцы "Дата получения карты", Дата окончания действия карты"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10.  При помощи формулы ЕСЛИ, присвойте всем картам "базовая" соответствующий бонус.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11. Присвойте каждому виду карты предложенные бонусы (используйте сложные логические выражения ЕСЛИ) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4597400" cy="1549400"/>
+    <xdr:ext cx="4804144" cy="3851939"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -3195,8 +4254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086600" y="685800"/>
-          <a:ext cx="4597400" cy="1549400"/>
+          <a:off x="7098414" y="696432"/>
+          <a:ext cx="4804144" cy="3851939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3240,8 +4299,30 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Задание 3:</a:t>
+            <a:t>0. Выберите выпавшую вам проблему и скройте остальные листы</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3258,6 +4339,28 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100">
               <a:solidFill>
@@ -3268,7 +4371,115 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2. Создайте интерактивную таблицу из данного диапазона значений</a:t>
+            <a:t>2. Отсортируйте по типу автомобиля</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. Посчитайте выручку</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. Посчитайте долю каждого автомобиля в общей выручке</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. С помощью функции ЕСЛИ перекодируйте значения в колонке Тип на следующие значения </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3282,7 +4493,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>3. Отсортируйте по типу автомобиля</a:t>
+            <a:t>    0 - Легковой</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3296,11 +4507,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>4. Создайте свободную таблицы, в которой необходимо отобразить: </a:t>
+            <a:t>    1 - Внедорожник</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
+          <a:br>
             <a:rPr lang="ru-RU" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -3310,21 +4521,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>	В значениях - Продажи</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>; </a:t>
-          </a:r>
-          <a:r>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:br>
             <a:rPr lang="ru-RU" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -3334,41 +4543,394 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Выручка</a:t>
-          </a:r>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>867316</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>363962</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>92926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38C5319-5DAC-4F9B-E5CE-3C48072921FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8193048" y="1417133"/>
+          <a:ext cx="3840975" cy="4716037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>	В строках - Производитель; Модель</a:t>
+            <a:t>0. Выберите выпавшую вам проблему и скройте остальные листы</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
+          <a:br>
             <a:rPr lang="ru-RU" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>	В фильтре - Тип</a:t>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. Настроите представление таблицы Сотрудники</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. Отобразите скрытый столбецы </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B, H, I, J</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Измените ширину столбцов таблицы и перенесите строки в заголовках. Сделайте так, чтобы все данные были отображены!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. Разбейте фамилии и имена по разным столбцам</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. Зафиксируйте первую строку таблицы</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6. Отсоритируйте таблицу по Фамилиям</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7. Перенесите готовую таблицу в новый лист «Сотрудники»</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3799,8 +5361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271F90D3-7587-BD4A-B118-BB3EAC6E8045}">
   <dimension ref="E6:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3922,7 +5484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6EAB73-21C5-F64E-A5C1-604215C4D2B3}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="188" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3930,7 +5494,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="90" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4136,25 +5700,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="111" t="s">
+      <c r="H1" s="90" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4292,32 +5856,32 @@
       <c r="H18" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="92"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="97"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="95" t="s">
+      <c r="D30" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="97"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="102"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
       <c r="D31" s="17" t="s">
         <v>43</v>
       </c>
@@ -4428,12 +5992,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9147CD-7272-A34D-BB77-AF37321B4B80}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4447,50 +6014,50 @@
       <c r="F1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="104" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="115" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="100"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="103"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="110"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="108"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
@@ -4718,7 +6285,7 @@
         <v>725100916</v>
       </c>
       <c r="D16" s="41"/>
-      <c r="G16" s="111" t="s">
+      <c r="G16" s="90" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4963,8 +6530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2F146E-88DE-E246-8A88-46864487A3BE}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="B7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5029,7 +6596,7 @@
       </c>
       <c r="J2" s="76"/>
       <c r="K2" s="73"/>
-      <c r="M2" s="111" t="s">
+      <c r="M2" s="90" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5657,7 +7224,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5665,8 +7233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB121F3-7348-7F47-A5BF-D3A4E90EA538}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5705,7 +7273,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="12"/>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="90" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7475,8 +9043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8D0C5C-F86A-534D-83E2-F16ADAFF9737}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView zoomScale="164" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7561,7 +9129,7 @@
       <c r="K2" s="89">
         <v>7000</v>
       </c>
-      <c r="N2" s="111" t="s">
+      <c r="N2" s="90" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8543,6 +10111,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/03_excel_start/Кейс №3 "Помоги бабушке-бухгалтеру".xlsx
+++ b/03_excel_start/Кейс №3 "Помоги бабушке-бухгалтеру".xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pyshkovni/РАНХиГС.Диск/Материал/economic-informatics/03_excel_start/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77E3B74-52D7-F544-8AD3-2B43236237D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960C831C-A333-624D-A0C8-E0A2D0C32A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1040" windowWidth="27840" windowHeight="16340" xr2:uid="{8102696D-405D-E342-B207-5311608B1291}"/>
   </bookViews>
@@ -185,7 +185,7 @@
   <commentList>
     <comment ref="N2" authorId="0" shapeId="0" xr:uid="{99920821-1492-2D42-8451-970E1FCE0F37}">
       <text>
-        <t xml:space="preserve">[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     0. Выберите выпавшую вам проблему и скройте остальные листы
@@ -196,7 +196,8 @@
 5. Зафиксируйте первую строку таблицы
 6. Отсоритируйте таблицу по Фамилиям
 7. Перенесите готовую таблицу в новый лист «Сотрудники»
-</t>
+8. Определите премию для тех сотрудников, у которых более двух детей
+9. Определите премию для тех сотрудников, у которых более двух детей (Есть премия или Нет премия)</t>
       </text>
     </comment>
   </commentList>
@@ -3383,6 +3384,383 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B53453C-5C67-AAD2-A1BF-158DE120B9FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11341100" y="4356100"/>
+          <a:ext cx="4889500" cy="4470400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Сотрудники 1,2,3 и 4 продают в магазине эл/тех. приборов следующие товары:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>USB-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>накопитель</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Видеорегистратор</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Коммуникатор</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Кабель оптический</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0. Выберите выпавшую вам проблему и скройте остальные листы</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. Заполните таблицу, используя справочную информацию и формулы-подсказки. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Используйте инструменты редактирования </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MS Excel </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>и строку формул! Вид итоговой </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>таблицы представлен на рисунке 2!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. Сделайте гистограмму, показывающую продажи каждого сотрудника в отдельности </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Вставка - Диаграммы -Гистограмма {НЕ СПАРКЛАЙНЫ}). </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Каждый столбец отображает долю от выручки, полученную сотрудником от продажи </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>конкретного товара.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Образец гистограммы представлен на рисунке 2! </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4583,9 +4961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>363962</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>92926</xdr:rowOff>
+      <xdr:colOff>433659</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7744</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4601,7 +4979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8193048" y="1417133"/>
-          <a:ext cx="3840975" cy="4716037"/>
+          <a:ext cx="3910672" cy="4832196"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4925,6 +5303,17 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>8. Определите премию для тех</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> сотрудников, у которых более двух детей (Есть премия или Нет премия)</a:t>
+          </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5344,7 +5733,7 @@
 <file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="N2" dT="2024-10-12T03:03:36.22" personId="{D0ABEDF8-28D3-2947-98C5-6C1A42F01D22}" id="{99920821-1492-2D42-8451-970E1FCE0F37}">
-    <text xml:space="preserve">0. Выберите выпавшую вам проблему и скройте остальные листы
+    <text>0. Выберите выпавшую вам проблему и скройте остальные листы
 1. Настроите представление таблицы Сотрудники
 2. Отобразите скрытый столбецы B, H, I, J
 3. Измените ширину столбцов таблицы и перенесите строки в заголовках. Сделайте так, чтобы все данные были отображены!
@@ -5352,7 +5741,8 @@
 5. Зафиксируйте первую строку таблицы
 6. Отсоритируйте таблицу по Фамилиям
 7. Перенесите готовую таблицу в новый лист «Сотрудники»
-</text>
+8. Определите премию для тех сотрудников, у которых более двух детей
+9. Определите премию для тех сотрудников, у которых более двух детей (Есть премия или Нет премия)</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -5362,7 +5752,7 @@
   <dimension ref="E6:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5690,7 +6080,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9044,7 +9434,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
